--- a/biology/Médecine/Glande_para-urétrale/Glande_para-urétrale.xlsx
+++ b/biology/Médecine/Glande_para-urétrale/Glande_para-urétrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glande_para-ur%C3%A9trale</t>
+          <t>Glande_para-urétrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les glandes para-urétrales ont été découvertes et décrites par Regnier de Graaf (1641-1673). Ainsi il est fait mention de leur existence dans son ouvrage « De Mulierum Organis »[1] (« Des Organes des Femmes ») publié en 1672. Elles sont alors dénommées : « Prostatarum sive glandulosi corpori », « Prostate ou corps glandulaire ». 
-La dénomination Glandulae paraurethrales femininae ou « glandes para-urétrales de la femme » est attesté dans la publication de la Terminologie anatomique en 1998. Depuis sa mise à jour en 2020[2], cette publication internationale et officielle ajoute pour l'entrée 3440[3](Glandulae paraurethrales femininae) les termes latins Prostata Feminina ainsi que les termes anglais Female prostate, soit Prostate féminine en français, termes que nous utiliserons à présent dans cet article. Il est a noter que les termes Skene's glands (glandes de Skene) figurent encore dans cette mise à jour. Néanmoins selon Milan Zaviačič[4] la prostate féminine ne devrait pas être confondue avec les glandes de Skene (également nommées glandes bulbo-urétrales, décrites par le gynécologue écossais Alexander Skene (1838-1900) qui leur donne son nom) ni avec les glandes de Bartholin (également nommées glandes vestibulaires majeures) en raison de : 
-leur position dans l'appareil génital (à l'intérieur de la paroi de l'urètre, Cf. Zaviačič, p.123[4] ) ;
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les glandes para-urétrales ont été découvertes et décrites par Regnier de Graaf (1641-1673). Ainsi il est fait mention de leur existence dans son ouvrage « De Mulierum Organis » (« Des Organes des Femmes ») publié en 1672. Elles sont alors dénommées : « Prostatarum sive glandulosi corpori », « Prostate ou corps glandulaire ». 
+La dénomination Glandulae paraurethrales femininae ou « glandes para-urétrales de la femme » est attesté dans la publication de la Terminologie anatomique en 1998. Depuis sa mise à jour en 2020, cette publication internationale et officielle ajoute pour l'entrée 3440(Glandulae paraurethrales femininae) les termes latins Prostata Feminina ainsi que les termes anglais Female prostate, soit Prostate féminine en français, termes que nous utiliserons à présent dans cet article. Il est a noter que les termes Skene's glands (glandes de Skene) figurent encore dans cette mise à jour. Néanmoins selon Milan Zaviačič la prostate féminine ne devrait pas être confondue avec les glandes de Skene (également nommées glandes bulbo-urétrales, décrites par le gynécologue écossais Alexander Skene (1838-1900) qui leur donne son nom) ni avec les glandes de Bartholin (également nommées glandes vestibulaires majeures) en raison de : 
+leur position dans l'appareil génital (à l'intérieur de la paroi de l'urètre, Cf. Zaviačič, p.123 ) ;
 de la spécificité de leurs sécrétions (la phosphatase acide prostatique) ;
-parce que les sécrétions ne s'écoulent pas par de petits conduits ouverts autour du méat urétral[5] mais bien par l'urètre lui-même.
+parce que les sécrétions ne s'écoulent pas par de petits conduits ouverts autour du méat urétral mais bien par l'urètre lui-même.
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glande_para-ur%C3%A9trale</t>
+          <t>Glande_para-urétrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Histologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostate féminine est composée des mêmes éléments que la prostate masculine : glandes et conduits prostatiques, muscles lisses, fonction neuroendocrinienne. 
 Glandes prostatiques : Elles produisent les sécrétions prostatiques et se présentent soit comme des glandes alvéolaires ou tubulo-alvéolaires solitaires, soit dans des conglomérats glandulaires de densité variable. Elles peuvent former les terminaisons des conduits prostatiques féminins ou être localisées directement dans la muqueuse épithéliale de ces conduits.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glande_para-ur%C3%A9trale</t>
+          <t>Glande_para-urétrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,12 +564,14 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La prostate féminine secrète au moment de la stimulation sexuelle ou de l'orgasme, un liquide dont l'aspect et la quantité varient d'une femme à l'autre, d'un rapport à l'autre ou d'un orgasme à l'autre et qui s'écoule par l'urètre mais ne provient pas de la vessie.
 « Comme pour l'homme, la prostate féminine évacue son contenu par l'urètre par un mécanisme de sécrétion continue ou lors d'expulsions urétrales (Milan Zaviačič et al. 1988b, c). Chez l'homme comme chez la femme, l'urètre représente le passage commun à l'urine et aux sécrétions prostatiques. » Cf. Zaviačič, p.30
-Le phénomène d'expulsion urétrale est également appelé éjaculation féminine[6]. 
+Le phénomène d'expulsion urétrale est également appelé éjaculation féminine. 
 Lors de l'orgasme, les glandes para-urétrales peuvent produire de manière réflexe une quantité plus ou moins grande d'un liquide translucide dont la composition est proche du liquide séminal masculin. Ce liquide est donc différent de l'urine ou des autres sécrétions émises par le vagin ou la vulve, telles les sécrétions lubrifiantes des glandes vestibulaires majeures.
 Chez certaines femmes, l'émission de liquide passerait inaperçue lors des rapports sexuels au vu de la faible quantité produite, plus de cinq fois moins importante que le sperme. Le liquide dit "fontaine" étant encore autre chose puisque provenant de la vessie et composé d'urée, de créatine et d'acide urique, qui sont les composants de l'urine.
 L'importance des glandes para-urétrales, selon qu'elles seraient peu ou très développées, ou encore selon qu'elles se gorgeraient plus ou moins de liquide, pourrait avoir un rapport avec les différences physiologiques d'accès à l'orgasme chez certaines femmes[réf. souhaitée].
